--- a/Documentos/Análisis/Selección Múltiple de Clientes en Perfil de Empleados v3.xlsx
+++ b/Documentos/Análisis/Selección Múltiple de Clientes en Perfil de Empleados v3.xlsx
@@ -545,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Documentos/Análisis/Selección Múltiple de Clientes en Perfil de Empleados v3.xlsx
+++ b/Documentos/Análisis/Selección Múltiple de Clientes en Perfil de Empleados v3.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$C$63</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$E$63</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$E$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$C$63</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -545,15 +545,15 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
@@ -1445,7 +1445,7 @@
       <c r="B69" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C63"/>
+  <autoFilter ref="A1:E63"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
